--- a/Asset/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/Asset/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L'ATR21\OneDrive\Bureau\CLBTSPORTEFOLIO\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436EF394-F625-4C6B-824D-7441AA39A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009B315-2588-4C7F-B06C-CF967050116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>Le 11/09/2023</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio : https://github.com/Latr21/PortefolioCL</t>
+    <t>Adresse URL du portfolio : https://latr21.github.io/PortefolioChristianLatour/</t>
   </si>
 </sst>
 </file>
@@ -729,38 +729,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,6 +769,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3651,56 +3651,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
@@ -3712,22 +3712,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3750,8 +3750,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
@@ -3807,16 +3807,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -4287,16 +4287,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -4571,16 +4571,16 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -5025,6 +5025,11 @@
     <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -5032,11 +5037,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5048,6 +5048,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="a54630e7-b857-4bdf-808b-f1da7c130004" xsi:nil="true"/>
@@ -5101,15 +5110,6 @@
     </Student_Groups>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5530,20 +5530,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
     <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
